--- a/Things to Buy.xlsx
+++ b/Things to Buy.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="13995"/>
+    <workbookView xWindow="630" yWindow="600" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1052,11 +1053,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1067,8 +1065,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1375,7 +1376,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1800,7 +1801,7 @@
       <c r="A10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -2052,13 +2053,13 @@
       <c r="A15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="33" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="16" t="s">
@@ -2354,7 +2355,7 @@
       <c r="C21" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="33" t="s">
         <v>76</v>
       </c>
       <c r="E21" s="10" t="s">
@@ -2731,16 +2732,16 @@
       <c r="F29" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="32">
         <v>1</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="32">
         <v>188.25</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="32">
         <f>H26*I26</f>
         <v>1.37</v>
       </c>
@@ -3170,7 +3171,7 @@
       <c r="A38" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="30" t="s">
         <v>141</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -3948,14 +3949,14 @@
       <c r="A54" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="29" t="s">
         <v>205</v>
       </c>
       <c r="C54" s="24" t="s">
         <v>206</v>
       </c>
       <c r="D54" s="12"/>
-      <c r="E54" s="32" t="s">
+      <c r="E54" s="31" t="s">
         <v>207</v>
       </c>
       <c r="F54" s="12"/>
@@ -36030,6 +36031,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F10:F26"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="B4:B7"/>
     <mergeCell ref="G67:G74"/>
     <mergeCell ref="A76:J76"/>
     <mergeCell ref="F67:F73"/>
@@ -36046,16 +36057,6 @@
     <mergeCell ref="H29:H31"/>
     <mergeCell ref="J29:J31"/>
     <mergeCell ref="I29:I31"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F10:F26"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B10:B12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1"/>
